--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8383893333333333</v>
+        <v>0.06828333333333333</v>
       </c>
       <c r="N2">
-        <v>2.515168</v>
+        <v>0.20485</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>154.3161965195662</v>
+        <v>4.364068566994444</v>
       </c>
       <c r="R2">
-        <v>1388.845768676096</v>
+        <v>39.27661710295</v>
       </c>
       <c r="S2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="T2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>172.3302</v>
       </c>
       <c r="I3">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J3">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.8383893333333333</v>
+        <v>0.06828333333333333</v>
       </c>
       <c r="N3">
-        <v>2.515168</v>
+        <v>0.20485</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>48.1599338304</v>
+        <v>3.92242683</v>
       </c>
       <c r="R3">
-        <v>433.4394044736001</v>
+        <v>35.30184147</v>
       </c>
       <c r="S3">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="T3">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H4">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I4">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J4">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8383893333333333</v>
+        <v>0.06828333333333333</v>
       </c>
       <c r="N4">
-        <v>2.515168</v>
+        <v>0.20485</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>34.55030416924089</v>
+        <v>2.441496189583333</v>
       </c>
       <c r="R4">
-        <v>310.952737523168</v>
+        <v>21.97346570625</v>
       </c>
       <c r="S4">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="T4">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
     </row>
   </sheetData>
